--- a/TERCER CUATRIMESTRE/Elementos de inv operativa/Simplex/Problema Encuentro 20240410 - 1.xlsx
+++ b/TERCER CUATRIMESTRE/Elementos de inv operativa/Simplex/Problema Encuentro 20240410 - 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Documents\GitHub\Facultad\TERCER CUATRIMESTRE\Elementos de inv operativa\Simplex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAGUIRRE\Documents\GitHub\Facultad\TERCER CUATRIMESTRE\Elementos de inv operativa\Simplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD22219D-BE18-4CC2-B5BC-AD7C3994BC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEB1C4F-F176-4045-B7A9-2D2358EC5D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solución" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,9 +635,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="12" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1810,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,8 +1958,8 @@
       <c r="K22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="O22" s="36" t="s">
+      <c r="M22" s="15"/>
+      <c r="O22" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2063,7 +2060,7 @@
       <c r="I25" s="30">
         <v>280</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <f t="shared" si="0"/>
         <v>93.333333333333329</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="19">
-        <f t="shared" si="1"/>
+        <f>+G23*$A23+G24*$A24+G25*$A25</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
